--- a/Code/results/ROC.thresholds.table.xlsx
+++ b/Code/results/ROC.thresholds.table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/LAB/Raji_Summer2019_atom/Code/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{40BB2E31-6745-A045-BB75-400DF4EE8FDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739CC594-4E74-214B-B440-6BF8AD7B03CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROC.thresholds.table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Threshold</t>
   </si>
@@ -30,11 +38,14 @@
   <si>
     <t>Global_FPR</t>
   </si>
+  <si>
+    <t>AUC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -974,8 +985,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2086,16 +2098,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2105,8 +2117,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2116,8 +2131,12 @@
       <c r="C2">
         <v>1.3240000000000001</v>
       </c>
+      <c r="E2">
+        <f>(C2-C3)*B2</f>
+        <v>1.024289</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -2127,8 +2146,12 @@
       <c r="C3">
         <v>0.20699999999999999</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E22" si="0">(C3-C4)*B3</f>
+        <v>2.9537999999999998E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -2138,8 +2161,12 @@
       <c r="C4">
         <v>0.153</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.4055999999999999E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.15</v>
       </c>
@@ -2149,8 +2176,12 @@
       <c r="C5">
         <v>0.125</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.1907999999999998E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -2160,8 +2191,12 @@
       <c r="C6">
         <v>9.9000000000000005E-2</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.9660000000000043E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.25</v>
       </c>
@@ -2171,8 +2206,12 @@
       <c r="C7">
         <v>8.5999999999999993E-2</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5.025E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.3</v>
       </c>
@@ -2182,8 +2221,12 @@
       <c r="C8">
         <v>7.0999999999999994E-2</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.7829999999999969E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.35</v>
       </c>
@@ -2193,8 +2236,12 @@
       <c r="C9">
         <v>5.8000000000000003E-2</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.2900000000000012E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.4</v>
       </c>
@@ -2204,8 +2251,12 @@
       <c r="C10">
         <v>5.2999999999999999E-2</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.6399999999999991E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.45</v>
       </c>
@@ -2215,8 +2266,12 @@
       <c r="C11">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.2739999999999997E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.5</v>
       </c>
@@ -2226,8 +2281,12 @@
       <c r="C12">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>8.200000000000002E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.55000000000000004</v>
       </c>
@@ -2237,8 +2296,12 @@
       <c r="C13">
         <v>2.9000000000000001E-2</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000015E-4</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.6</v>
       </c>
@@ -2248,8 +2311,12 @@
       <c r="C14">
         <v>2.4E-2</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5.8500000000000012E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.65</v>
       </c>
@@ -2259,8 +2326,12 @@
       <c r="C15">
         <v>1.9E-2</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.0399999999999981E-4</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.7</v>
       </c>
@@ -2270,8 +2341,12 @@
       <c r="C16">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5.2800000000000015E-4</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.75</v>
       </c>
@@ -2281,8 +2356,12 @@
       <c r="C17">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.46E-4</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.8</v>
       </c>
@@ -2292,8 +2371,12 @@
       <c r="C18">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.85</v>
       </c>
@@ -2303,8 +2386,12 @@
       <c r="C19">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999956E-5</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.9</v>
       </c>
@@ -2314,8 +2401,12 @@
       <c r="C20">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.3199999999999998E-4</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.95</v>
       </c>
@@ -2325,8 +2416,12 @@
       <c r="C21">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2335,6 +2430,10 @@
       </c>
       <c r="C22">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
